--- a/End_of_Report.xlsx
+++ b/End_of_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Echt:</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Qualität Intern:</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
   </si>
 </sst>
 </file>
@@ -223,9 +226,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,10 +532,6 @@
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12">
-        <f>COUNT(#REF!)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -540,91 +540,97 @@
       <c r="B15" t="s">
         <v>49</v>
       </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>26</v>
       </c>
@@ -659,411 +665,412 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="G44" s="2" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="N44" s="3" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="N45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="2" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="G46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="N45" s="3" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="N46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="2" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="N46" s="2" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="2" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="N47" s="1" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="N48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="G49" s="3" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="3" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="3" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="2" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="G56" s="2" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="N56" s="2" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="N57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="G57" s="2" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="N57" s="2" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="N58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="G58" s="2" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="N58" s="2" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="N59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="G59" s="2" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="G61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="G61" s="2" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="G62" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="G62" s="2" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="G63" s="2" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="G64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="G65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="G63:L63"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="G64:L64"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="G61:L61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="N57:R57"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="G58:L58"/>
     <mergeCell ref="N58:R58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="N56:R56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="G49:L49"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="G51:L51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="N45:R45"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="G46:L46"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="G47:L47"/>
+    <mergeCell ref="N47:R47"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="G48:L48"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="N45:R45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
